--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chaithra\APAC_796_Daily_Raw_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DC4EC3-AFC9-41F1-812F-3578930FAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7698C-8431-47C4-A9F7-A76FE6708898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Credentials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -147,12 +148,6 @@
     <t>Static part of logging message. Error loading transaction data</t>
   </si>
   <si>
-    <t>Orchestrator Queue Name.</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-  </si>
-  <si>
     <t>Process Name of the Automation(If you process automation from business side, you can include that)</t>
   </si>
   <si>
@@ -165,20 +160,35 @@
     <t>Daily Raw Data</t>
   </si>
   <si>
-    <t>796_Extract_Report</t>
-  </si>
-  <si>
     <t>796_GetEmail_Count</t>
   </si>
   <si>
     <t>796_Download_Reports_Path</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>796_JDE_Url</t>
+  </si>
+  <si>
+    <t>796_Role</t>
+  </si>
+  <si>
+    <t>796_Queue_Name</t>
+  </si>
+  <si>
+    <t>796_JDE_Credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,6 +220,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF464E55"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -241,6 +257,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -611,7 +628,7 @@
         <v>796</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -619,10 +636,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -630,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -691,17 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1687,7 +1694,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2809,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB11BF1D-73C8-432F-835C-94674457BC78}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.5"/>
@@ -2820,31 +2826,116 @@
     <col min="1" max="1" width="66.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3341E0-FB6F-4FE4-9A98-E6C0E829CED9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chaithra\APAC_796_Daily_Raw_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7698C-8431-47C4-A9F7-A76FE6708898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016145E-39A5-47D9-9406-87E854B96C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -154,12 +154,6 @@
     <t>Project_ID of the process automation (BusinessGroup_Function_RobotType_DemandIntakeID_Phase)</t>
   </si>
   <si>
-    <t>Extarct_Reports</t>
-  </si>
-  <si>
-    <t>Daily Raw Data</t>
-  </si>
-  <si>
     <t>796_GetEmail_Count</t>
   </si>
   <si>
@@ -182,6 +176,45 @@
   </si>
   <si>
     <t>796_JDE_Credentials</t>
+  </si>
+  <si>
+    <t>796_Delay_ElementExists</t>
+  </si>
+  <si>
+    <t>796_Delay5Seconds</t>
+  </si>
+  <si>
+    <t>796_Inventory_Report</t>
+  </si>
+  <si>
+    <t>796_Inventory_Downloaded_Report</t>
+  </si>
+  <si>
+    <t>796_DailyRawData_Path</t>
+  </si>
+  <si>
+    <t>APAC_IT_U_796</t>
+  </si>
+  <si>
+    <t>Extract_Reports</t>
+  </si>
+  <si>
+    <t>APAC_796_Daily Raw Data</t>
+  </si>
+  <si>
+    <t>796_LocalFolder_Path</t>
+  </si>
+  <si>
+    <t>796_Global_Inventory_Email</t>
+  </si>
+  <si>
+    <t>796_Account_Id</t>
+  </si>
+  <si>
+    <t>796_OpenDemand_Report_Name</t>
+  </si>
+  <si>
+    <t>796_OpenDemand_Report_Extract_Name</t>
   </si>
 </sst>
 </file>
@@ -227,12 +260,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -258,6 +297,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,7 +615,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -624,8 +664,8 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
-        <v>796</v>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -636,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -647,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -2815,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB11BF1D-73C8-432F-835C-94674457BC78}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.5"/>
@@ -2834,66 +2874,177 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2920,18 +3071,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chaithra\APAC_796_Daily_Raw_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016145E-39A5-47D9-9406-87E854B96C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8F3B1-0FF9-41E6-8D23-3C44DD735A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,54 @@
   </si>
   <si>
     <t>796_OpenDemand_Report_Extract_Name</t>
+  </si>
+  <si>
+    <t>796_ConsumptionReport_Name</t>
+  </si>
+  <si>
+    <t>796_ConsumptionReport_Extract_Name</t>
+  </si>
+  <si>
+    <t>796_LocalFolder_Drive</t>
+  </si>
+  <si>
+    <t>796_ConsumptionReport_DestinationPath</t>
+  </si>
+  <si>
+    <t>796_YieldReport_PowerBi_Url</t>
+  </si>
+  <si>
+    <t>796_PowerBI_Credentials</t>
+  </si>
+  <si>
+    <t>796_YieldReport_Name</t>
+  </si>
+  <si>
+    <t>796_YieldReport_Destination_Path</t>
+  </si>
+  <si>
+    <t>796_PlateWorkOrder_Report_Name</t>
+  </si>
+  <si>
+    <t>796_PlateWordOrder_Downloaded_FileName</t>
+  </si>
+  <si>
+    <t>796_PlateWorkOrder_SheetName</t>
+  </si>
+  <si>
+    <t>796_PlateWorkOrder_Destination_Path</t>
+  </si>
+  <si>
+    <t>796_PlateWorkOrder_FinalDestination_Path</t>
+  </si>
+  <si>
+    <t>796_DailyLoading_Plan_Report_Url</t>
+  </si>
+  <si>
+    <t>796_Daily_Loading_Plan_Report_Source_Path</t>
+  </si>
+  <si>
+    <t>796_Daily_Loading_Plan_Report_Destination_Path</t>
   </si>
 </sst>
 </file>
@@ -2855,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB11BF1D-73C8-432F-835C-94674457BC78}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.5"/>
@@ -3042,6 +3090,171 @@
         <v>46</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3050,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3341E0-FB6F-4FE4-9A98-E6C0E829CED9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3085,6 +3298,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
